--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\eclipse-workspace-seleniumtraining\Saran\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2506039E-F51B-4B4B-8501-030A8371179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E77EB4-818F-445C-B34E-C984EFCEF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
   <si>
     <t>Username</t>
   </si>
@@ -511,6 +511,27 @@
   </si>
   <si>
     <t>teamdropdown</t>
+  </si>
+  <si>
+    <t>escalatedtoregion</t>
+  </si>
+  <si>
+    <t>escalatedtolocation</t>
+  </si>
+  <si>
+    <t>reasonforoccurrence</t>
+  </si>
+  <si>
+    <t>NERTCC</t>
+  </si>
+  <si>
+    <t>AIZWAL</t>
+  </si>
+  <si>
+    <t>Attenuator</t>
+  </si>
+  <si>
+    <t>subreasonoccurrence</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" activeCellId="1" sqref="Q1:Q1048576 P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6659F-7721-4EC1-BAE0-E6CEED4F0246}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,9 +1936,17 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1942,8 +1971,38 @@
       <c r="H1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1968,10 +2027,46 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>91992345867</v>
+      </c>
+      <c r="P2">
+        <v>4712358669</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{A585FE40-9DBE-4591-A801-E7FFDE9DCD18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E77EB4-818F-445C-B34E-C984EFCEF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC5AA8B-16FB-4A98-9319-53F30D6B69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,19 @@
     <sheet name="viewinglink" sheetId="7" r:id="rId6"/>
     <sheet name="updatelink" sheetId="8" r:id="rId7"/>
     <sheet name="newlink" sheetId="9" r:id="rId8"/>
-    <sheet name="createrole" sheetId="10" r:id="rId9"/>
-    <sheet name="updaterole" sheetId="12" r:id="rId10"/>
-    <sheet name="deleterole" sheetId="11" r:id="rId11"/>
-    <sheet name="updatecomplaint" sheetId="4" r:id="rId12"/>
-    <sheet name="autoclosureticket" sheetId="19" r:id="rId13"/>
-    <sheet name="liveusercomplaintupdate" sheetId="20" r:id="rId14"/>
-    <sheet name="dailyreport" sheetId="21" r:id="rId15"/>
-    <sheet name="privatecommenttestcase10" sheetId="17" r:id="rId16"/>
-    <sheet name="updateuser" sheetId="14" r:id="rId17"/>
-    <sheet name="filtercomplaint" sheetId="15" r:id="rId18"/>
-    <sheet name="mappinglinktestcase8" sheetId="16" r:id="rId19"/>
-    <sheet name="loginlocalusertestcase10" sheetId="18" r:id="rId20"/>
+    <sheet name="auditlogoneyear" sheetId="22" r:id="rId9"/>
+    <sheet name="createrole" sheetId="10" r:id="rId10"/>
+    <sheet name="updaterole" sheetId="12" r:id="rId11"/>
+    <sheet name="deleterole" sheetId="11" r:id="rId12"/>
+    <sheet name="updatecomplaint" sheetId="4" r:id="rId13"/>
+    <sheet name="autoclosureticket" sheetId="19" r:id="rId14"/>
+    <sheet name="liveusercomplaintupdate" sheetId="20" r:id="rId15"/>
+    <sheet name="dailyreport" sheetId="21" r:id="rId16"/>
+    <sheet name="privatecommenttestcase10" sheetId="17" r:id="rId17"/>
+    <sheet name="updateuser" sheetId="14" r:id="rId18"/>
+    <sheet name="filtercomplaint" sheetId="15" r:id="rId19"/>
+    <sheet name="mappinglinktestcase8" sheetId="16" r:id="rId20"/>
+    <sheet name="loginlocalusertestcase10" sheetId="18" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="164">
   <si>
     <t>Username</t>
   </si>
@@ -321,9 +322,6 @@
     <t>sevicetype</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>cktid</t>
   </si>
   <si>
@@ -465,9 +463,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>LO-202502106531</t>
-  </si>
-  <si>
     <t>Ajay</t>
   </si>
   <si>
@@ -532,15 +527,38 @@
   </si>
   <si>
     <t>subreasonoccurrence</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>termination date</t>
+  </si>
+  <si>
+    <t>current month and year</t>
+  </si>
+  <si>
+    <t>selectyear</t>
+  </si>
+  <si>
+    <t>selectmonth</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>LO-202308186524</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="h:mm"/>
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -580,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -588,6 +606,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +995,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FB624-F262-4EE6-B4CD-77E4CC9E9183}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9DA878-4003-4E91-B518-379378DE813B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -986,24 +1049,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65EFEC9-47AA-4FBC-ABD5-40DEC0728F19}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1023,12 +1086,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1037,12 +1100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="1" sqref="Q1:Q1048576 P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1181,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1166,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1184,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89147277-6A3C-4C27-810B-AD26462BC139}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -1261,7 +1324,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1276,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
@@ -1309,7 +1372,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1333,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359D2FC3-8262-429C-B76C-08F6092B6F3F}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -1413,7 +1476,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1461,7 +1524,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1478,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346312A-0ED8-458A-8709-73560B311398}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1498,39 +1561,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>148</v>
-      </c>
-      <c r="I1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1539,16 +1602,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
         <v>147</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -1559,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD521420-67D9-4E67-91E2-F3EA9D014772}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1577,12 +1640,12 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1593,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921C5F9-DA0F-4792-BD56-F265A8834B75}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1613,19 +1676,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1634,21 +1697,21 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
         <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1660,19 +1723,19 @@
         <v>9456123789</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1683,12 +1746,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2CF7C3-CBE2-496D-9254-59A0528675C0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1715,64 +1778,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
         <v>32218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480A6027-E23D-4C32-AE12-E8887FA7E9D8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1861,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1861,6 +1896,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480A6027-E23D-4C32-AE12-E8887FA7E9D8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDCBCD3-E0B0-49C1-B32E-A731957A96C8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1876,15 +1939,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1910,12 +1973,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6659F-7721-4EC1-BAE0-E6CEED4F0246}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -1969,19 +2032,19 @@
         <v>48</v>
       </c>
       <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
@@ -2028,13 +2091,13 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" t="s">
         <v>155</v>
-      </c>
-      <c r="J2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>157</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -2055,7 +2118,7 @@
         <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2090,7 +2153,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2372,172 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5B09ED-88A3-4D54-8A06-8B1CB295CD23}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="W2" s="7">
+        <v>45720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999563A4-0C06-4103-AF2A-827D2B63480F}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -2317,192 +2545,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2">
-        <v>112</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0.18055555555555555</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FB624-F262-4EE6-B4CD-77E4CC9E9183}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="A2" s="8">
+        <v>45717</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC5AA8B-16FB-4A98-9319-53F30D6B69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132E475-0E48-4955-A4BF-D0BAFC03A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -355,12 +355,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>tester3</t>
-  </si>
-  <si>
-    <t>tester5</t>
-  </si>
-  <si>
     <t>Analyst</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>private_comment</t>
   </si>
   <si>
-    <t>neethu</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -445,15 +436,6 @@
     <t>teSt@123</t>
   </si>
   <si>
-    <t>neethu1</t>
-  </si>
-  <si>
-    <t>tester5neethu</t>
-  </si>
-  <si>
-    <t>neethu4</t>
-  </si>
-  <si>
     <t>LO-202308186513</t>
   </si>
   <si>
@@ -548,6 +530,24 @@
   </si>
   <si>
     <t>LO-202308186524</t>
+  </si>
+  <si>
+    <t>neethu11</t>
+  </si>
+  <si>
+    <t>test134</t>
+  </si>
+  <si>
+    <t>tester100</t>
+  </si>
+  <si>
+    <t>neethu111</t>
+  </si>
+  <si>
+    <t>neethu422</t>
+  </si>
+  <si>
+    <t>test256</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1229,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1339,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
@@ -1372,7 +1372,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1524,7 +1524,7 @@
         <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R2" s="5">
         <v>0.37708333333333338</v>
@@ -1561,39 +1561,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1602,16 +1602,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -1640,12 +1640,12 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1697,21 +1697,21 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1723,19 +1723,19 @@
         <v>9456123789</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1778,30 +1778,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1939,15 +1939,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1973,12 +1973,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6659F-7721-4EC1-BAE0-E6CEED4F0246}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,19 +2032,19 @@
         <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
         <v>150</v>
-      </c>
-      <c r="J1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" t="s">
-        <v>156</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2091,13 +2091,13 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -2118,7 +2118,7 @@
         <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712942B9-7CDB-4823-A45C-E75D34B137A0}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Y2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,9 @@
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="24.7109375" customWidth="1"/>
     <col min="20" max="20" width="22.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -2375,7 +2377,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,15 +2457,15 @@
         <v>35</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>112</v>
@@ -2552,13 +2554,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2571,7 @@
         <v>2024</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132E475-0E48-4955-A4BF-D0BAFC03A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69500C09-A955-4EB9-8F58-0B5D4A8618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="163">
   <si>
     <t>Username</t>
   </si>
@@ -541,13 +541,10 @@
     <t>tester100</t>
   </si>
   <si>
-    <t>neethu111</t>
-  </si>
-  <si>
-    <t>neethu422</t>
-  </si>
-  <si>
     <t>test256</t>
+  </si>
+  <si>
+    <t>neethunew</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B889F398-F614-4537-9F12-00E692AE7DD1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>

--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69500C09-A955-4EB9-8F58-0B5D4A8618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976998BC-DBF5-4F1A-B2F6-B18BA7F1CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
@@ -544,7 +544,7 @@
     <t>test256</t>
   </si>
   <si>
-    <t>neethunew</t>
+    <t>neethu202</t>
   </si>
 </sst>
 </file>

--- a/Saran/src/main/resources/testdatalogin.xlsx
+++ b/Saran/src/main/resources/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976998BC-DBF5-4F1A-B2F6-B18BA7F1CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB37B2B-832D-4CF0-AA64-1CBAB44AE919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B889F398-F614-4537-9F12-00E692AE7DD1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
